--- a/src/main/resources/xlsx/pmd/report_ow.xlsx
+++ b/src/main/resources/xlsx/pmd/report_ow.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lm\Desktop\待完成\党费修改\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{5DB97972-6E20-41F9-9E54-ABE965B7B8B6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{68818640-4E6F-4CED-96F4-E5EEED2D1BC3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>--</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -529,6 +529,10 @@
   </si>
   <si>
     <t>school党委组织部制表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>党委组织部</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -706,7 +710,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -722,37 +726,40 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1038,7 +1045,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="A5" sqref="A5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1053,255 +1060,273 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:6" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="6"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="11"/>
       <c r="D2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="6"/>
+      <c r="E2" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="11"/>
     </row>
     <row r="3" spans="1:6" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="6"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="11"/>
       <c r="D3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="6"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="11"/>
     </row>
     <row r="4" spans="1:6" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="6"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11"/>
       <c r="D4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="6"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:6" s="2" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:6" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="10"/>
+      <c r="D6" s="6"/>
       <c r="E6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
       <c r="E7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
       <c r="C8" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="4"/>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="F8" s="6"/>
+      <c r="F8" s="11"/>
     </row>
     <row r="9" spans="1:6" s="2" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
     </row>
     <row r="10" spans="1:6" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="10"/>
+      <c r="D10" s="6"/>
       <c r="E10" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
       <c r="E11" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
       <c r="C12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D12" s="4"/>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="6"/>
+      <c r="F12" s="11"/>
     </row>
     <row r="13" spans="1:6" s="2" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
     </row>
     <row r="14" spans="1:6" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10" t="s">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="10"/>
+      <c r="D14" s="6"/>
       <c r="E14" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
       <c r="E15" s="3" t="s">
         <v>28</v>
       </c>
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" s="2" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
     </row>
     <row r="17" spans="1:6" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
       <c r="E17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
       <c r="E18" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" s="2" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
     </row>
     <row r="20" spans="1:6" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
       <c r="E20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="14"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
       <c r="E21" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="7" t="s">
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F22" s="7"/>
+      <c r="F22" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="B10:B12"/>
@@ -1318,22 +1343,6 @@
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="A10:A12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
